--- a/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -95,19 +95,19 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>forename</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>payroll</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>er</t>
+    <t>FORENAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>PAYROLL</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ER</t>
   </si>
   <si>
     <t>Kilshanny</t>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>745539</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ER</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -2082,10 +2076,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -2098,22 +2092,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2135,24 +2129,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -10,7 +10,6 @@
     <sheet name="~Details" sheetId="3" r:id="rId2"/>
     <sheet name="sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="#Details" sheetId="5" r:id="rId4"/>
-    <sheet name="$Details" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -110,6 +109,10 @@
     <t>ER</t>
   </si>
   <si>
+    <t>Payroll number 745475 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Kilshanny</t>
   </si>
   <si>
@@ -119,6 +122,10 @@
     <t>745475</t>
   </si>
   <si>
+    <t>Payroll number 778461 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Caherconlish</t>
   </si>
   <si>
@@ -128,6 +135,10 @@
     <t>778461</t>
   </si>
   <si>
+    <t>Payroll number 745541 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Furbo</t>
   </si>
   <si>
@@ -137,6 +148,10 @@
     <t>745541</t>
   </si>
   <si>
+    <t>Payroll number 745479 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Ballinrobe</t>
   </si>
   <si>
@@ -146,6 +161,10 @@
     <t>745479</t>
   </si>
   <si>
+    <t>Payroll number 745519 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Coolrain</t>
   </si>
   <si>
@@ -155,6 +174,10 @@
     <t>745519</t>
   </si>
   <si>
+    <t>Payroll number 745473 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Omeath</t>
   </si>
   <si>
@@ -164,6 +187,10 @@
     <t>745473</t>
   </si>
   <si>
+    <t>Payroll number 745472 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Ballyfin</t>
   </si>
   <si>
@@ -173,6 +200,10 @@
     <t>745472</t>
   </si>
   <si>
+    <t>Payroll number 745471 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Harold</t>
   </si>
   <si>
@@ -182,6 +213,10 @@
     <t>745471</t>
   </si>
   <si>
+    <t>Payroll number 745474 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Grange</t>
   </si>
   <si>
@@ -191,12 +226,20 @@
     <t>745474</t>
   </si>
   <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Rathnure</t>
   </si>
   <si>
     <t>Blanchardstown</t>
   </si>
   <si>
+    <t>Payroll number 745477 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Bansha</t>
   </si>
   <si>
@@ -206,6 +249,10 @@
     <t>745477</t>
   </si>
   <si>
+    <t>Payroll number 745539 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Duhallow</t>
   </si>
   <si>
@@ -227,19 +274,121 @@
     <t>2904</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1160359</t>
+  </si>
+  <si>
+    <t>352004</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>7,091.18</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1157591</t>
+  </si>
+  <si>
+    <t>352001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>26/03/2021</t>
+  </si>
+  <si>
+    <t>15,329.63</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>ILIM March 2021</t>
+  </si>
+  <si>
+    <t>1155040</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>1151936</t>
+  </si>
+  <si>
+    <t>02/03/2021</t>
+  </si>
+  <si>
+    <t>13,973.83</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>ILIM Feb 2021</t>
+  </si>
+  <si>
+    <t>1151311</t>
+  </si>
+  <si>
+    <t>26/02/2021</t>
+  </si>
+  <si>
+    <t>6,943.67</t>
+  </si>
+  <si>
+    <t>1147443</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>13,733.89</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>ILIM Jan 2021</t>
   </si>
 </sst>
 </file>
@@ -253,7 +402,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +572,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -435,8 +585,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,18 +783,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39998000860214233"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,17 +1033,16 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,7 +1966,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="54.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1845,16 +1989,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="14"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>375.0</v>
@@ -1863,16 +2009,18 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>100.0</v>
@@ -1881,16 +2029,18 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>350.0</v>
@@ -1899,16 +2049,18 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>50.0</v>
@@ -1917,16 +2069,18 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>140.0</v>
@@ -1935,16 +2089,18 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>450.0</v>
@@ -1953,16 +2109,18 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>100.0</v>
@@ -1971,16 +2129,18 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>350.0</v>
@@ -1989,16 +2149,18 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>50.0</v>
@@ -2007,13 +2169,15 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>250.0</v>
@@ -2022,16 +2186,18 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>200.0</v>
@@ -2040,16 +2206,18 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>225.0</v>
@@ -2066,13 +2234,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -2092,61 +2271,225 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -10,6 +10,7 @@
     <sheet name="~Details" sheetId="3" r:id="rId2"/>
     <sheet name="sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="#Details" sheetId="5" r:id="rId4"/>
+    <sheet name="$Details" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -109,10 +110,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>Payroll number 745475 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Kilshanny</t>
   </si>
   <si>
@@ -122,10 +119,6 @@
     <t>745475</t>
   </si>
   <si>
-    <t>Payroll number 778461 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Caherconlish</t>
   </si>
   <si>
@@ -135,10 +128,6 @@
     <t>778461</t>
   </si>
   <si>
-    <t>Payroll number 745541 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Furbo</t>
   </si>
   <si>
@@ -148,10 +137,6 @@
     <t>745541</t>
   </si>
   <si>
-    <t>Payroll number 745479 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballinrobe</t>
   </si>
   <si>
@@ -161,10 +146,6 @@
     <t>745479</t>
   </si>
   <si>
-    <t>Payroll number 745519 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Coolrain</t>
   </si>
   <si>
@@ -174,10 +155,6 @@
     <t>745519</t>
   </si>
   <si>
-    <t>Payroll number 745473 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Omeath</t>
   </si>
   <si>
@@ -187,10 +164,6 @@
     <t>745473</t>
   </si>
   <si>
-    <t>Payroll number 745472 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballyfin</t>
   </si>
   <si>
@@ -200,10 +173,6 @@
     <t>745472</t>
   </si>
   <si>
-    <t>Payroll number 745471 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Harold</t>
   </si>
   <si>
@@ -213,10 +182,6 @@
     <t>745471</t>
   </si>
   <si>
-    <t>Payroll number 745474 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Grange</t>
   </si>
   <si>
@@ -226,20 +191,12 @@
     <t>745474</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Rathnure</t>
   </si>
   <si>
     <t>Blanchardstown</t>
   </si>
   <si>
-    <t>Payroll number 745477 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Bansha</t>
   </si>
   <si>
@@ -249,10 +206,6 @@
     <t>745477</t>
   </si>
   <si>
-    <t>Payroll number 745539 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Duhallow</t>
   </si>
   <si>
@@ -274,121 +227,19 @@
     <t>2904</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1160359</t>
-  </si>
-  <si>
-    <t>352004</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
-    <t>7,091.18</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1157591</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>26/03/2021</t>
-  </si>
-  <si>
-    <t>15,329.63</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>ILIM March 2021</t>
-  </si>
-  <si>
-    <t>1155040</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>1151936</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
-  </si>
-  <si>
-    <t>13,973.83</t>
-  </si>
-  <si>
-    <t>01/02/2021</t>
-  </si>
-  <si>
-    <t>ILIM Feb 2021</t>
-  </si>
-  <si>
-    <t>1151311</t>
-  </si>
-  <si>
-    <t>26/02/2021</t>
-  </si>
-  <si>
-    <t>6,943.67</t>
-  </si>
-  <si>
-    <t>1147443</t>
-  </si>
-  <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
-    <t>13,733.89</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>ILIM Jan 2021</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -402,7 +253,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,7 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -585,15 +435,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +626,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,16 +888,17 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,7 +1822,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="54.125"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1989,18 +1845,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="14"/>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2">
         <v>375.0</v>
@@ -2009,18 +1863,16 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="14"/>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3">
         <v>100.0</v>
@@ -2029,18 +1881,16 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="14"/>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
       <c r="E4">
         <v>350.0</v>
@@ -2049,18 +1899,16 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="14" t="s">
-        <v>42</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>50.0</v>
@@ -2069,18 +1917,16 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="14" t="s">
-        <v>46</v>
-      </c>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>140.0</v>
@@ -2089,18 +1935,16 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="14" t="s">
-        <v>50</v>
-      </c>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>450.0</v>
@@ -2109,18 +1953,16 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="14" t="s">
-        <v>54</v>
-      </c>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>100.0</v>
@@ -2129,18 +1971,16 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="14" t="s">
-        <v>58</v>
-      </c>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>350.0</v>
@@ -2149,18 +1989,16 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="14" t="s">
-        <v>62</v>
-      </c>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>50.0</v>
@@ -2169,15 +2007,13 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="14" t="s">
-        <v>66</v>
-      </c>
+    <row r="11" spans="1:6" ht="14.25">
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>250.0</v>
@@ -2186,18 +2022,16 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="14" t="s">
-        <v>69</v>
-      </c>
+    <row r="12" spans="1:6" ht="14.25">
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>200.0</v>
@@ -2206,18 +2040,16 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>73</v>
-      </c>
+    <row r="13" spans="1:6" ht="14.25">
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>225.0</v>
@@ -2234,24 +2066,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="15"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -2271,225 +2092,61 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" t="s">
-        <v>119</v>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -10,7 +10,6 @@
     <sheet name="~Details" sheetId="3" r:id="rId2"/>
     <sheet name="sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="#Details" sheetId="5" r:id="rId4"/>
-    <sheet name="$Details" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -110,6 +109,10 @@
     <t>ER</t>
   </si>
   <si>
+    <t>Payroll number 745475 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Kilshanny</t>
   </si>
   <si>
@@ -119,6 +122,10 @@
     <t>745475</t>
   </si>
   <si>
+    <t>Payroll number 778461 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Caherconlish</t>
   </si>
   <si>
@@ -128,6 +135,10 @@
     <t>778461</t>
   </si>
   <si>
+    <t>Payroll number 745541 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Furbo</t>
   </si>
   <si>
@@ -137,6 +148,10 @@
     <t>745541</t>
   </si>
   <si>
+    <t>Payroll number 745479 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Ballinrobe</t>
   </si>
   <si>
@@ -146,6 +161,10 @@
     <t>745479</t>
   </si>
   <si>
+    <t>Payroll number 745519 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Coolrain</t>
   </si>
   <si>
@@ -155,6 +174,10 @@
     <t>745519</t>
   </si>
   <si>
+    <t>Payroll number 745473 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Omeath</t>
   </si>
   <si>
@@ -164,6 +187,10 @@
     <t>745473</t>
   </si>
   <si>
+    <t>Payroll number 745472 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Ballyfin</t>
   </si>
   <si>
@@ -173,6 +200,10 @@
     <t>745472</t>
   </si>
   <si>
+    <t>Payroll number 745471 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Harold</t>
   </si>
   <si>
@@ -182,6 +213,10 @@
     <t>745471</t>
   </si>
   <si>
+    <t>Payroll number 745474 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Grange</t>
   </si>
   <si>
@@ -191,12 +226,20 @@
     <t>745474</t>
   </si>
   <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Rathnure</t>
   </si>
   <si>
     <t>Blanchardstown</t>
   </si>
   <si>
+    <t>Payroll number 745477 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Bansha</t>
   </si>
   <si>
@@ -206,6 +249,10 @@
     <t>745477</t>
   </si>
   <si>
+    <t>Payroll number 745539 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Duhallow</t>
   </si>
   <si>
@@ -227,19 +274,121 @@
     <t>2904</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1181858</t>
+  </si>
+  <si>
+    <t>352001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>15,788.67</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1180620</t>
+  </si>
+  <si>
+    <t>352004</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>30/08/2021</t>
+  </si>
+  <si>
+    <t>7,567.84</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1177725</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 21</t>
+  </si>
+  <si>
+    <t>1176008</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 2021</t>
+  </si>
+  <si>
+    <t>1173446</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>476.66</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM June 2021 M McNulty (N/E)</t>
+  </si>
+  <si>
+    <t>1172079</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>15,827.67</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
 </sst>
 </file>
@@ -253,7 +402,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +572,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -435,8 +585,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,18 +783,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39998000860214233"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,17 +1033,16 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,7 +1966,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="54.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1845,16 +1989,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="14"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>375.0</v>
@@ -1863,16 +2009,18 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>100.0</v>
@@ -1881,16 +2029,18 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>350.0</v>
@@ -1899,16 +2049,18 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>50.0</v>
@@ -1917,16 +2069,18 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>140.0</v>
@@ -1935,16 +2089,18 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>450.0</v>
@@ -1953,16 +2109,18 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>100.0</v>
@@ -1971,16 +2129,18 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>350.0</v>
@@ -1989,16 +2149,18 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>50.0</v>
@@ -2007,13 +2169,15 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>250.0</v>
@@ -2022,16 +2186,18 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>200.0</v>
@@ -2040,16 +2206,18 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>225.0</v>
@@ -2066,13 +2234,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="28.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -2092,61 +2271,225 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -402,7 +402,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,13 +585,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -912,14 +905,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -932,6 +917,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="63">
@@ -1006,7 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,11 +1026,14 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2010,7 +2006,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
@@ -2030,7 +2026,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
@@ -2050,7 +2046,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
@@ -2070,7 +2066,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
@@ -2090,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
@@ -2110,7 +2106,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B8" t="s">
@@ -2130,7 +2126,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
@@ -2150,7 +2146,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
@@ -2170,7 +2166,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B11" t="s">
@@ -2187,7 +2183,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B12" t="s">
@@ -2207,7 +2203,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
@@ -2290,31 +2286,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>89</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -10,6 +10,7 @@
     <sheet name="~Details" sheetId="3" r:id="rId2"/>
     <sheet name="sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="#Details" sheetId="5" r:id="rId4"/>
+    <sheet name="$Details" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -109,10 +110,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>Payroll number 745475 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Kilshanny</t>
   </si>
   <si>
@@ -122,10 +119,6 @@
     <t>745475</t>
   </si>
   <si>
-    <t>Payroll number 778461 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Caherconlish</t>
   </si>
   <si>
@@ -135,10 +128,6 @@
     <t>778461</t>
   </si>
   <si>
-    <t>Payroll number 745541 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Furbo</t>
   </si>
   <si>
@@ -148,10 +137,6 @@
     <t>745541</t>
   </si>
   <si>
-    <t>Payroll number 745479 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballinrobe</t>
   </si>
   <si>
@@ -161,10 +146,6 @@
     <t>745479</t>
   </si>
   <si>
-    <t>Payroll number 745519 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Coolrain</t>
   </si>
   <si>
@@ -174,10 +155,6 @@
     <t>745519</t>
   </si>
   <si>
-    <t>Payroll number 745473 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Omeath</t>
   </si>
   <si>
@@ -187,10 +164,6 @@
     <t>745473</t>
   </si>
   <si>
-    <t>Payroll number 745472 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballyfin</t>
   </si>
   <si>
@@ -200,10 +173,6 @@
     <t>745472</t>
   </si>
   <si>
-    <t>Payroll number 745471 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Harold</t>
   </si>
   <si>
@@ -213,10 +182,6 @@
     <t>745471</t>
   </si>
   <si>
-    <t>Payroll number 745474 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Grange</t>
   </si>
   <si>
@@ -226,20 +191,12 @@
     <t>745474</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Rathnure</t>
   </si>
   <si>
     <t>Blanchardstown</t>
   </si>
   <si>
-    <t>Payroll number 745477 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Bansha</t>
   </si>
   <si>
@@ -249,10 +206,6 @@
     <t>745477</t>
   </si>
   <si>
-    <t>Payroll number 745539 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Duhallow</t>
   </si>
   <si>
@@ -274,121 +227,19 @@
     <t>2904</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1181858</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>07/09/2021</t>
-  </si>
-  <si>
-    <t>15,788.67</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1180620</t>
-  </si>
-  <si>
-    <t>352004</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>30/08/2021</t>
-  </si>
-  <si>
-    <t>7,567.84</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1177725</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 21</t>
-  </si>
-  <si>
-    <t>1176008</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 2021</t>
-  </si>
-  <si>
-    <t>1173446</t>
-  </si>
-  <si>
-    <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>476.66</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM June 2021 M McNulty (N/E)</t>
-  </si>
-  <si>
-    <t>1172079</t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>15,827.67</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -402,7 +253,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +423,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -579,14 +443,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +634,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1026,19 +896,20 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1962,10 +1833,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="54.125"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -1985,18 +1856,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="14"/>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2">
         <v>375.0</v>
@@ -2005,18 +1874,16 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3">
         <v>100.0</v>
@@ -2025,18 +1892,16 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
       <c r="E4">
         <v>350.0</v>
@@ -2045,18 +1910,16 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="15" t="s">
-        <v>42</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>50.0</v>
@@ -2065,18 +1928,16 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="15" t="s">
-        <v>46</v>
-      </c>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>140.0</v>
@@ -2085,18 +1946,16 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="15" t="s">
-        <v>50</v>
-      </c>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>450.0</v>
@@ -2105,18 +1964,16 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="15" t="s">
-        <v>54</v>
-      </c>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>100.0</v>
@@ -2125,18 +1982,16 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="15" t="s">
-        <v>58</v>
-      </c>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>350.0</v>
@@ -2145,18 +2000,16 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="15" t="s">
-        <v>62</v>
-      </c>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>50.0</v>
@@ -2165,15 +2018,13 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="15" t="s">
-        <v>66</v>
-      </c>
+    <row r="11" spans="1:6" ht="14.25">
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>250.0</v>
@@ -2182,18 +2033,16 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="15" t="s">
-        <v>69</v>
-      </c>
+    <row r="12" spans="1:6" ht="14.25">
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>200.0</v>
@@ -2202,18 +2051,16 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="15" t="s">
-        <v>73</v>
-      </c>
+    <row r="13" spans="1:6" ht="14.25">
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>225.0</v>
@@ -2230,24 +2077,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="28.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -2267,225 +2103,61 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" t="s">
-        <v>119</v>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
